--- a/GBJHB Weights SF Version 2025-08-05.xlsx
+++ b/GBJHB Weights SF Version 2025-08-05.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95b237eb562e4680/SF Personal/Airplane Stuff/_UK Flying/Zitair/Committe/Ooperational Documents from Website/Handling Notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95b237eb562e4680/SF Personal/Airplane Stuff/_UK Flying/Zitair/Club Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F15F08F9-CE22-C849-AD3D-B548EF68BE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E188356-D107-2C4B-860A-930B407E3127}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F15F08F9-CE22-C849-AD3D-B548EF68BE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25FC5E6F-9A41-D244-A3EE-C1107DB7277E}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="2820" windowWidth="38640" windowHeight="21240" xr2:uid="{91BE8F3D-2F08-4719-9D37-FD94516E397B}"/>
   </bookViews>
@@ -163,7 +163,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -564,13 +564,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -582,7 +579,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -600,7 +597,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -608,6 +605,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -624,6 +624,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2298700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBAB375-901A-360F-1CB8-E87BDA59C4AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="5135994"/>
+          <a:ext cx="1905000" cy="1544205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -926,7 +981,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -941,80 +996,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="20" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>2.665</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <f>B3*2.2</f>
         <v>5.8630000000000004</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <v>1</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <f>IF(D3="Yes",B3*F3,0)</f>
         <v>2.665</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <f>IF(D3="Yes",C3*F3,0)</f>
         <v>5.8630000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>0.37</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <f t="shared" ref="C4:C20" si="0">B4*2.2</f>
         <v>0.81400000000000006</v>
       </c>
@@ -1031,19 +1086,19 @@
         <f t="shared" ref="G4:G20" si="1">IF(D4="Yes",B4*F4,0)</f>
         <v>0.37</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <f t="shared" ref="H4:H20" si="2">IF(D4="Yes",C4*F4,0)</f>
         <v>0.81400000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>0.92500000000000004</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <f t="shared" si="0"/>
         <v>2.0350000000000001</v>
       </c>
@@ -1060,19 +1115,19 @@
         <f t="shared" si="1"/>
         <v>0.92500000000000004</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <f t="shared" si="2"/>
         <v>2.0350000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>2.2130000000000001</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <f t="shared" si="0"/>
         <v>4.8686000000000007</v>
       </c>
@@ -1089,19 +1144,19 @@
         <f t="shared" si="1"/>
         <v>2.2130000000000001</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <f t="shared" si="2"/>
         <v>4.8686000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>0.89800000000000002</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <f t="shared" si="0"/>
         <v>1.9756000000000002</v>
       </c>
@@ -1118,19 +1173,19 @@
         <f t="shared" si="1"/>
         <v>2.694</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <f t="shared" si="2"/>
         <v>5.926800000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>0.374</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <f t="shared" si="0"/>
         <v>0.82280000000000009</v>
       </c>
@@ -1147,19 +1202,19 @@
         <f t="shared" si="1"/>
         <v>0.374</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <f t="shared" si="2"/>
         <v>0.82280000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>0.752</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <f t="shared" si="0"/>
         <v>1.6544000000000001</v>
       </c>
@@ -1176,19 +1231,19 @@
         <f t="shared" si="1"/>
         <v>0.752</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <f t="shared" si="2"/>
         <v>1.6544000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>3.3540000000000001</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <f t="shared" si="0"/>
         <v>7.3788000000000009</v>
       </c>
@@ -1205,19 +1260,19 @@
         <f t="shared" si="1"/>
         <v>3.3540000000000001</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <f t="shared" si="2"/>
         <v>7.3788000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>1.841</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <f t="shared" si="0"/>
         <v>4.0502000000000002</v>
       </c>
@@ -1234,19 +1289,19 @@
         <f t="shared" si="1"/>
         <v>1.841</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <f t="shared" si="2"/>
         <v>4.0502000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>0.34499999999999997</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <f t="shared" si="0"/>
         <v>0.75900000000000001</v>
       </c>
@@ -1263,19 +1318,19 @@
         <f t="shared" si="1"/>
         <v>1.0349999999999999</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <f t="shared" si="2"/>
         <v>2.2770000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>0.42</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <f t="shared" si="0"/>
         <v>0.92400000000000004</v>
       </c>
@@ -1292,19 +1347,19 @@
         <f t="shared" si="1"/>
         <v>1.26</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <f t="shared" si="2"/>
         <v>2.7720000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>1.4259999999999999</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <f t="shared" si="0"/>
         <v>3.1372</v>
       </c>
@@ -1321,19 +1376,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>0.77400000000000002</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <f t="shared" si="0"/>
         <v>1.7028000000000001</v>
       </c>
@@ -1350,19 +1405,19 @@
         <f t="shared" si="1"/>
         <v>0.77400000000000002</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="31">
         <f t="shared" si="2"/>
         <v>1.7028000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <f t="shared" si="0"/>
         <v>1.7050000000000003</v>
       </c>
@@ -1379,19 +1434,19 @@
         <f t="shared" si="1"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="31">
         <f t="shared" si="2"/>
         <v>1.7050000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>11.3</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <f t="shared" si="0"/>
         <v>24.860000000000003</v>
       </c>
@@ -1408,19 +1463,19 @@
         <f t="shared" si="1"/>
         <v>11.3</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <f t="shared" si="2"/>
         <v>24.860000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>0.65300000000000002</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <f t="shared" si="0"/>
         <v>1.4366000000000001</v>
       </c>
@@ -1437,19 +1492,19 @@
         <f t="shared" si="1"/>
         <v>0.65300000000000002</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <f t="shared" si="2"/>
         <v>1.4366000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>0.89400000000000002</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <f t="shared" si="0"/>
         <v>1.9668000000000001</v>
       </c>
@@ -1466,36 +1521,36 @@
         <f t="shared" si="1"/>
         <v>1.788</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="31">
         <f t="shared" si="2"/>
         <v>3.9336000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="34">
         <v>0.57399999999999995</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <f t="shared" si="0"/>
         <v>1.2627999999999999</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="35">
         <v>2</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1613,6 +1668,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
